--- a/classificacao_ativos.xlsx
+++ b/classificacao_ativos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\asset allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B01A86-D13D-414C-968A-4D080B167E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD6D6D-80B3-49A1-8CCA-6983C0D5DC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{524FBDA4-AE90-4E6A-89C4-0AD5CECA0455}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{524FBDA4-AE90-4E6A-89C4-0AD5CECA0455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Ativo</t>
   </si>
@@ -89,9 +89,6 @@
     <t>EMB US Equity</t>
   </si>
   <si>
-    <t>shy US EQUITY</t>
-  </si>
-  <si>
     <t>HYG US Equity</t>
   </si>
   <si>
@@ -144,14 +141,112 @@
   </si>
   <si>
     <t>VGK US Equity</t>
+  </si>
+  <si>
+    <t>NomeCurto</t>
+  </si>
+  <si>
+    <t>Fortune FI Fund</t>
+  </si>
+  <si>
+    <t>US T-Bills</t>
+  </si>
+  <si>
+    <t>CoCos AT1</t>
+  </si>
+  <si>
+    <t>US TIPS</t>
+  </si>
+  <si>
+    <t>US Treas 7–10y</t>
+  </si>
+  <si>
+    <t>US Treas 20y+</t>
+  </si>
+  <si>
+    <t>EM Sov Bonds</t>
+  </si>
+  <si>
+    <t>US Treas 1–3y</t>
+  </si>
+  <si>
+    <t>US HY Credit</t>
+  </si>
+  <si>
+    <t>EM Corp Bonds</t>
+  </si>
+  <si>
+    <t>US IG Credit</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Russell 2000</t>
+  </si>
+  <si>
+    <t>S&amp;P 500 EqW</t>
+  </si>
+  <si>
+    <t>Cloud ETF</t>
+  </si>
+  <si>
+    <t>Semis ETF</t>
+  </si>
+  <si>
+    <t>Defense ETF</t>
+  </si>
+  <si>
+    <t>Gold Miners</t>
+  </si>
+  <si>
+    <t>Metals &amp; Mining ETF</t>
+  </si>
+  <si>
+    <t>Brazil Eq ETF</t>
+  </si>
+  <si>
+    <t>China Large Cap ETF</t>
+  </si>
+  <si>
+    <t>Mexico Eq ETF</t>
+  </si>
+  <si>
+    <t>China Internet ETF</t>
+  </si>
+  <si>
+    <t>Japan Eq ETF</t>
+  </si>
+  <si>
+    <t>Korea Eq ETF</t>
+  </si>
+  <si>
+    <t>Europe Eq ETF</t>
+  </si>
+  <si>
+    <t>Oil ETF</t>
+  </si>
+  <si>
+    <t>Gold ETF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -179,8 +274,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,264 +614,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3B9E0-E768-487F-8DA3-F12F2A4F9835}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
